--- a/doc/申请试用模块/规划页面：15个页面左右.xlsx
+++ b/doc/申请试用模块/规划页面：15个页面左右.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1.首页" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1试用商品详情" sheetId="3" r:id="rId3"/>
+    <sheet name="1.2购买页面" sheetId="4" r:id="rId4"/>
+    <sheet name="1.3试用报告反馈" sheetId="5" r:id="rId5"/>
+    <sheet name="2.试用秀" sheetId="6" r:id="rId6"/>
+    <sheet name="2.1试用秀详情" sheetId="7" r:id="rId7"/>
+    <sheet name="2.2分享效果" sheetId="8" r:id="rId8"/>
+    <sheet name="3.品牌馆" sheetId="9" r:id="rId9"/>
+    <sheet name="3.1品牌馆列表" sheetId="10" r:id="rId10"/>
+    <sheet name="4.我的首页" sheetId="11" r:id="rId11"/>
+    <sheet name="4.1我的试用_我的购买_我的订单" sheetId="12" r:id="rId12"/>
+    <sheet name="4.2我的收藏_我的点赞" sheetId="13" r:id="rId13"/>
+    <sheet name="4.3我的评论" sheetId="14" r:id="rId14"/>
+    <sheet name="4.4我的地址" sheetId="15" r:id="rId15"/>
+    <sheet name="5.试用规则" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>规划页面：15个页面左右</t>
   </si>
@@ -97,6 +110,36 @@
   </si>
   <si>
     <t>http://shop.rongec.cn/app/index.php?i=10&amp;c=entry&amp;do=rule&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=10&amp;do=detail&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=10&amp;op=0&amp;do=confirm&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=13&amp;op=1&amp;do=confirm&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;orderid=14047&amp;do=baogao&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=4&amp;do=detail&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>这些tab建议做成ajax请求数据，不然不好翻页</t>
+  </si>
+  <si>
+    <t>而且少导航到首页，品牌馆，试用秀等</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;type=3&amp;do=MyCenter&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;from=confirm&amp;returnurl=.%252Findex.php%253Fi%253D10%2526c%253Dentry%2526id%253D8%2526do%253Dconfirm%2526m%253Dsen_appfreeitem&amp;do=address&amp;m=sen_appfreeitem</t>
+  </si>
+  <si>
+    <t>http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=rule&amp;m=sen_appfreeitem</t>
   </si>
 </sst>
 </file>
@@ -104,12 +147,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,40 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +188,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,30 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -254,6 +251,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -278,6 +314,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,157 +440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,30 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,6 +543,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,21 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -574,153 +610,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,6 +821,753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="5609590" cy="6409690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3856990" cy="5504815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3533140" cy="5314315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="4533265" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="4533265" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="4571365" cy="6276340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3485515" cy="5581015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="6743065" cy="6504940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628015</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="6800215" cy="6504940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="809625"/>
+          <a:ext cx="4533265" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3418840" cy="5400040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3514090" cy="5561965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3514090" cy="5476240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="4533265" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647065</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3390265" cy="5476240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666115</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="3409315" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1090,7 +1876,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1215,42 +2001,483 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=list&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;brand_id=76&amp;brand_name=%E8%8B%B9%E6%9E%9C&amp;do=list&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=myorder&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;state=9&amp;do=myorder&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;type=2&amp;do=MyCenter&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;from=confirm&amp;returnurl=.%252Findex.php%253Fi%253D10%2526c%253Dentry%2526id%253D8%2526do%253Dconfirm%2526m%253Dsen_appfreeitem&amp;do=address&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=rule&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=list&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=10&amp;op=0&amp;do=confirm&amp;m=sen_appfreeitem"/>
+    <hyperlink ref="K2" r:id="rId3" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;id=13&amp;op=1&amp;do=confirm&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;orderid=14047&amp;do=baogao&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;op=jpcp&amp;do=list2&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;report_id=57&amp;do=baogao&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId2" display="http://shop.rongec.com/app/index.php?i=10&amp;c=entry&amp;do=brand&amp;m=sen_appfreeitem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>